--- a/HW1/MNIST/第三題.xlsx
+++ b/HW1/MNIST/第三題.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\王傳鈞\文件\課程資料\深度學習\Homework\HW1\MNIST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E7F842-7CF6-4154-8FA1-A12FD592F48D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5722B5E-E722-4933-843A-5818EC106636}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6880" xr2:uid="{9D57B149-80FE-4C7F-9E6C-5814875654FA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Epoch</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>Training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -202,37 +198,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>37.986927860983769</c:v>
+                  <c:v>14.6457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3182394457114546</c:v>
+                  <c:v>11.710900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3410951971657341</c:v>
+                  <c:v>8.4064999999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2932349871523714</c:v>
+                  <c:v>7.5186000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6458213436661413</c:v>
+                  <c:v>7.3287000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81390692969000478</c:v>
+                  <c:v>7.1421999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53700221233457757</c:v>
+                  <c:v>7.1224999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6688764015946882</c:v>
+                  <c:v>7.0507</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49854588425635527</c:v>
+                  <c:v>7.0273000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5362487316726372</c:v>
+                  <c:v>7.0145</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27051079763309516</c:v>
+                  <c:v>7.0170000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,37 +315,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>23.29</c:v>
+                  <c:v>13.7242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>10.1303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
+                  <c:v>7.3994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77</c:v>
+                  <c:v>6.6319999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>6.4477000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.46</c:v>
+                  <c:v>6.3091999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38</c:v>
+                  <c:v>6.2873000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33</c:v>
+                  <c:v>6.2332000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>6.2194000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26</c:v>
+                  <c:v>6.2073999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23</c:v>
+                  <c:v>6.2084999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,15 +1453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9688E3E-AC3E-4613-BD6A-45251CD57DB2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1475,184 +1471,126 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f ca="1">C2*D2</f>
-        <v>37.986927860983769</v>
+        <v>14.6457</v>
       </c>
       <c r="C2">
-        <v>23.29</v>
-      </c>
-      <c r="D2">
-        <f ca="1">RAND()*(2.1-1.1)+1.1</f>
-        <v>1.6310402688271264</v>
+        <v>13.7242</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B12" ca="1" si="0">C3*D3</f>
-        <v>4.3182394457114546</v>
+        <v>11.710900000000001</v>
       </c>
       <c r="C3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" ca="1" si="1">RAND()*(2.1-1.1)+1.1</f>
-        <v>1.8774954111788933</v>
+        <v>10.1303</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.3410951971657341</v>
+        <v>8.4064999999999994</v>
       </c>
       <c r="C4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0357349540571601</v>
+        <v>7.3994</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2932349871523714</v>
+        <v>7.5186000000000002</v>
       </c>
       <c r="C5">
-        <v>0.77</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6795259573407422</v>
+        <v>6.6319999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6458213436661413</v>
+        <v>7.3287000000000004</v>
       </c>
       <c r="C6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1134850752864507</v>
+        <v>6.4477000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.81390692969000478</v>
+        <v>7.1421999999999999</v>
       </c>
       <c r="C7">
-        <v>0.46</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7693628906304451</v>
+        <v>6.3091999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.53700221233457757</v>
+        <v>7.1224999999999996</v>
       </c>
       <c r="C8">
-        <v>0.38</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.4131637166699409</v>
+        <v>6.2873000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6688764015946882</v>
+        <v>7.0507</v>
       </c>
       <c r="C9">
-        <v>0.33</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0268981866505702</v>
+        <v>6.2332000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49854588425635527</v>
+        <v>7.0273000000000003</v>
       </c>
       <c r="C10">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7191237388150182</v>
+        <v>6.2194000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5362487316726372</v>
+        <v>7.0145</v>
       </c>
       <c r="C11">
-        <v>0.26</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.0624951218178351</v>
+        <v>6.2073999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.27051079763309516</v>
+        <v>7.0170000000000003</v>
       </c>
       <c r="C12">
-        <v>0.23</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1761339027525877</v>
+        <v>6.2084999999999999</v>
       </c>
     </row>
   </sheetData>
